--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1048226666666667</v>
+        <v>0.2032693333333333</v>
       </c>
       <c r="H2">
-        <v>0.314468</v>
+        <v>0.609808</v>
       </c>
       <c r="I2">
-        <v>0.005423866093972307</v>
+        <v>0.01014574830092973</v>
       </c>
       <c r="J2">
-        <v>0.005423866093972307</v>
+        <v>0.01014574830092973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.355508</v>
+        <v>0.4070896666666666</v>
       </c>
       <c r="N2">
-        <v>4.066524</v>
+        <v>1.221269</v>
       </c>
       <c r="O2">
-        <v>0.2350163444190579</v>
+        <v>0.06732963386756073</v>
       </c>
       <c r="P2">
-        <v>0.235016344419058</v>
+        <v>0.06732963386756075</v>
       </c>
       <c r="Q2">
-        <v>0.142087963248</v>
+        <v>0.08274884515022221</v>
       </c>
       <c r="R2">
-        <v>1.278791669232</v>
+        <v>0.744739606352</v>
       </c>
       <c r="S2">
-        <v>0.001274697182023846</v>
+        <v>0.000683109518414025</v>
       </c>
       <c r="T2">
-        <v>0.001274697182023846</v>
+        <v>0.0006831095184140251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1048226666666667</v>
+        <v>0.2032693333333333</v>
       </c>
       <c r="H3">
-        <v>0.314468</v>
+        <v>0.609808</v>
       </c>
       <c r="I3">
-        <v>0.005423866093972307</v>
+        <v>0.01014574830092973</v>
       </c>
       <c r="J3">
-        <v>0.005423866093972307</v>
+        <v>0.01014574830092973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.455660333333334</v>
+        <v>2.455660333333333</v>
       </c>
       <c r="N3">
-        <v>7.366981000000001</v>
+        <v>7.366980999999999</v>
       </c>
       <c r="O3">
-        <v>0.4257594309106884</v>
+        <v>0.4061481405319192</v>
       </c>
       <c r="P3">
-        <v>0.4257594309106884</v>
+        <v>0.4061481405319192</v>
       </c>
       <c r="Q3">
-        <v>0.2574088645675556</v>
+        <v>0.4991604388497777</v>
       </c>
       <c r="R3">
-        <v>2.316679781108</v>
+        <v>4.492443949648</v>
       </c>
       <c r="S3">
-        <v>0.002309262141505427</v>
+        <v>0.004120676806727487</v>
       </c>
       <c r="T3">
-        <v>0.002309262141505427</v>
+        <v>0.004120676806727488</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1048226666666667</v>
+        <v>0.2032693333333333</v>
       </c>
       <c r="H4">
-        <v>0.314468</v>
+        <v>0.609808</v>
       </c>
       <c r="I4">
-        <v>0.005423866093972307</v>
+        <v>0.01014574830092973</v>
       </c>
       <c r="J4">
-        <v>0.005423866093972307</v>
+        <v>0.01014574830092973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.956549666666667</v>
+        <v>3.183468333333334</v>
       </c>
       <c r="N4">
-        <v>5.869649000000001</v>
+        <v>9.550405000000001</v>
       </c>
       <c r="O4">
-        <v>0.3392242246702538</v>
+        <v>0.52652222560052</v>
       </c>
       <c r="P4">
-        <v>0.3392242246702538</v>
+        <v>0.5265222256005201</v>
       </c>
       <c r="Q4">
-        <v>0.2050907535257778</v>
+        <v>0.6471014858044445</v>
       </c>
       <c r="R4">
-        <v>1.845816781732</v>
+        <v>5.823913372240001</v>
       </c>
       <c r="S4">
-        <v>0.001839906770443033</v>
+        <v>0.005341961975788215</v>
       </c>
       <c r="T4">
-        <v>0.001839906770443034</v>
+        <v>0.005341961975788216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>56.826091</v>
       </c>
       <c r="I5">
-        <v>0.9801223279566915</v>
+        <v>0.9454503978493691</v>
       </c>
       <c r="J5">
-        <v>0.9801223279566916</v>
+        <v>0.9454503978493691</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.355508</v>
+        <v>0.4070896666666666</v>
       </c>
       <c r="N5">
-        <v>4.066524</v>
+        <v>1.221269</v>
       </c>
       <c r="O5">
-        <v>0.2350163444190579</v>
+        <v>0.06732963386756073</v>
       </c>
       <c r="P5">
-        <v>0.235016344419058</v>
+        <v>0.06732963386756075</v>
       </c>
       <c r="Q5">
-        <v>25.676073653076</v>
+        <v>7.711104814386554</v>
       </c>
       <c r="R5">
-        <v>231.084662877684</v>
+        <v>69.399943329479</v>
       </c>
       <c r="S5">
-        <v>0.2303447665998787</v>
+        <v>0.06365682912713765</v>
       </c>
       <c r="T5">
-        <v>0.2303447665998787</v>
+        <v>0.06365682912713766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>56.826091</v>
       </c>
       <c r="I6">
-        <v>0.9801223279566915</v>
+        <v>0.9454503978493691</v>
       </c>
       <c r="J6">
-        <v>0.9801223279566916</v>
+        <v>0.9454503978493691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.455660333333334</v>
+        <v>2.455660333333333</v>
       </c>
       <c r="N6">
-        <v>7.366981000000001</v>
+        <v>7.366980999999999</v>
       </c>
       <c r="O6">
-        <v>0.4257594309106884</v>
+        <v>0.4061481405319192</v>
       </c>
       <c r="P6">
-        <v>0.4257594309106884</v>
+        <v>0.4061481405319192</v>
       </c>
       <c r="Q6">
-        <v>46.51519252236345</v>
+        <v>46.51519252236344</v>
       </c>
       <c r="R6">
-        <v>418.6367327012711</v>
+        <v>418.6367327012709</v>
       </c>
       <c r="S6">
-        <v>0.4172963245737</v>
+        <v>0.3839929210516845</v>
       </c>
       <c r="T6">
-        <v>0.4172963245737001</v>
+        <v>0.3839929210516845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>56.826091</v>
       </c>
       <c r="I7">
-        <v>0.9801223279566915</v>
+        <v>0.9454503978493691</v>
       </c>
       <c r="J7">
-        <v>0.9801223279566916</v>
+        <v>0.9454503978493691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.956549666666667</v>
+        <v>3.183468333333334</v>
       </c>
       <c r="N7">
-        <v>5.869649000000001</v>
+        <v>9.550405000000001</v>
       </c>
       <c r="O7">
-        <v>0.3392242246702538</v>
+        <v>0.52652222560052</v>
       </c>
       <c r="P7">
-        <v>0.3392242246702538</v>
+        <v>0.5265222256005201</v>
       </c>
       <c r="Q7">
-        <v>37.06102313467322</v>
+        <v>60.30135373520611</v>
       </c>
       <c r="R7">
-        <v>333.5492082120591</v>
+        <v>542.7121836168551</v>
       </c>
       <c r="S7">
-        <v>0.3324812367831129</v>
+        <v>0.4978006476705469</v>
       </c>
       <c r="T7">
-        <v>0.332481236783113</v>
+        <v>0.497800647670547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.279337</v>
+        <v>0.889628</v>
       </c>
       <c r="H8">
-        <v>0.8380110000000001</v>
+        <v>2.668884</v>
       </c>
       <c r="I8">
-        <v>0.01445380594933611</v>
+        <v>0.04440385384970112</v>
       </c>
       <c r="J8">
-        <v>0.01445380594933611</v>
+        <v>0.04440385384970111</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.355508</v>
+        <v>0.4070896666666666</v>
       </c>
       <c r="N8">
-        <v>4.066524</v>
+        <v>1.221269</v>
       </c>
       <c r="O8">
-        <v>0.2350163444190579</v>
+        <v>0.06732963386756073</v>
       </c>
       <c r="P8">
-        <v>0.235016344419058</v>
+        <v>0.06732963386756075</v>
       </c>
       <c r="Q8">
-        <v>0.3786435381960001</v>
+        <v>0.3621583659773333</v>
       </c>
       <c r="R8">
-        <v>3.407791843764</v>
+        <v>3.259425293796</v>
       </c>
       <c r="S8">
-        <v>0.003396880637155404</v>
+        <v>0.002989695222009053</v>
       </c>
       <c r="T8">
-        <v>0.003396880637155405</v>
+        <v>0.002989695222009053</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.279337</v>
+        <v>0.889628</v>
       </c>
       <c r="H9">
-        <v>0.8380110000000001</v>
+        <v>2.668884</v>
       </c>
       <c r="I9">
-        <v>0.01445380594933611</v>
+        <v>0.04440385384970112</v>
       </c>
       <c r="J9">
-        <v>0.01445380594933611</v>
+        <v>0.04440385384970111</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.455660333333334</v>
+        <v>2.455660333333333</v>
       </c>
       <c r="N9">
-        <v>7.366981000000001</v>
+        <v>7.366980999999999</v>
       </c>
       <c r="O9">
-        <v>0.4257594309106884</v>
+        <v>0.4061481405319192</v>
       </c>
       <c r="P9">
-        <v>0.4257594309106884</v>
+        <v>0.4061481405319192</v>
       </c>
       <c r="Q9">
-        <v>0.6859567905323335</v>
+        <v>2.184624191022666</v>
       </c>
       <c r="R9">
-        <v>6.173611114791001</v>
+        <v>19.661617719204</v>
       </c>
       <c r="S9">
-        <v>0.006153844195482863</v>
+        <v>0.01803454267350721</v>
       </c>
       <c r="T9">
-        <v>0.006153844195482864</v>
+        <v>0.01803454267350721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.279337</v>
+        <v>0.889628</v>
       </c>
       <c r="H10">
-        <v>0.8380110000000001</v>
+        <v>2.668884</v>
       </c>
       <c r="I10">
-        <v>0.01445380594933611</v>
+        <v>0.04440385384970112</v>
       </c>
       <c r="J10">
-        <v>0.01445380594933611</v>
+        <v>0.04440385384970111</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.956549666666667</v>
+        <v>3.183468333333334</v>
       </c>
       <c r="N10">
-        <v>5.869649000000001</v>
+        <v>9.550405000000001</v>
       </c>
       <c r="O10">
-        <v>0.3392242246702538</v>
+        <v>0.52652222560052</v>
       </c>
       <c r="P10">
-        <v>0.3392242246702538</v>
+        <v>0.5265222256005201</v>
       </c>
       <c r="Q10">
-        <v>0.5465367142376667</v>
+        <v>2.832102566446667</v>
       </c>
       <c r="R10">
-        <v>4.918830428139001</v>
+        <v>25.48892309802</v>
       </c>
       <c r="S10">
-        <v>0.004903081116697842</v>
+        <v>0.02337961595418485</v>
       </c>
       <c r="T10">
-        <v>0.004903081116697843</v>
+        <v>0.02337961595418485</v>
       </c>
     </row>
   </sheetData>
